--- a/DataTables/Datas/UI/#Form.xlsx
+++ b/DataTables/Datas/UI/#Form.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -53,7 +53,7 @@
     <t>##type</t>
   </si>
   <si>
-    <t>int</t>
+    <t>UI.FormID</t>
   </si>
   <si>
     <t>string</t>
@@ -1052,7 +1052,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="16.8"/>
@@ -1141,8 +1141,8 @@
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>21</v>
@@ -1161,8 +1161,8 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6">
-        <v>101</v>
+      <c r="B6" t="s">
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
